--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H2">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I2">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J2">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N2">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O2">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P2">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q2">
-        <v>19.97607816842626</v>
+        <v>22.50384159804667</v>
       </c>
       <c r="R2">
-        <v>19.97607816842626</v>
+        <v>202.53457438242</v>
       </c>
       <c r="S2">
-        <v>0.00987741555225246</v>
+        <v>0.009504832583379499</v>
       </c>
       <c r="T2">
-        <v>0.00987741555225246</v>
+        <v>0.0105498187785194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H3">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I3">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J3">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N3">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P3">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q3">
-        <v>241.5608869548696</v>
+        <v>264.4543207172253</v>
       </c>
       <c r="R3">
-        <v>241.5608869548696</v>
+        <v>2380.088886455028</v>
       </c>
       <c r="S3">
-        <v>0.1194427275217205</v>
+        <v>0.1116962201061154</v>
       </c>
       <c r="T3">
-        <v>0.1194427275217205</v>
+        <v>0.1239763951682517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H4">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I4">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J4">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N4">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O4">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P4">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q4">
-        <v>439.0025069938837</v>
+        <v>573.0710569993111</v>
       </c>
       <c r="R4">
-        <v>439.0025069938837</v>
+        <v>5157.639512993799</v>
       </c>
       <c r="S4">
-        <v>0.2170701452757089</v>
+        <v>0.2420450940088192</v>
       </c>
       <c r="T4">
-        <v>0.2170701452757089</v>
+        <v>0.2686561657580306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H5">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I5">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J5">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N5">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O5">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P5">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q5">
-        <v>652.0768446874098</v>
+        <v>700.3811421010599</v>
       </c>
       <c r="R5">
-        <v>652.0768446874098</v>
+        <v>6303.430278909539</v>
       </c>
       <c r="S5">
-        <v>0.322427350988212</v>
+        <v>0.2958164041113998</v>
       </c>
       <c r="T5">
-        <v>0.322427350988212</v>
+        <v>0.3283392345642879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H6">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I6">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J6">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N6">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O6">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P6">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q6">
-        <v>212.0888866956039</v>
+        <v>223.9048782689787</v>
       </c>
       <c r="R6">
-        <v>212.0888866956039</v>
+        <v>1343.429269613872</v>
       </c>
       <c r="S6">
-        <v>0.104869937444388</v>
+        <v>0.09456955930285851</v>
       </c>
       <c r="T6">
-        <v>0.104869937444388</v>
+        <v>0.0699778562717104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H7">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I7">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J7">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N7">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O7">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P7">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q7">
-        <v>1.16367444671096</v>
+        <v>1.292616099311667</v>
       </c>
       <c r="R7">
-        <v>1.16367444671096</v>
+        <v>11.633544893805</v>
       </c>
       <c r="S7">
-        <v>0.0005753930266386785</v>
+        <v>0.000545955656726844</v>
       </c>
       <c r="T7">
-        <v>0.0005753930266386785</v>
+        <v>0.0006059794519313714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H8">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I8">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J8">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N8">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P8">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q8">
-        <v>14.07174266661182</v>
+        <v>15.19020257062633</v>
       </c>
       <c r="R8">
-        <v>14.07174266661182</v>
+        <v>136.711823135637</v>
       </c>
       <c r="S8">
-        <v>0.006957944832343239</v>
+        <v>0.006415808239334407</v>
       </c>
       <c r="T8">
-        <v>0.006957944832343239</v>
+        <v>0.007121179005411119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H9">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I9">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J9">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N9">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O9">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P9">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q9">
-        <v>25.57338808566937</v>
+        <v>32.91708533849445</v>
       </c>
       <c r="R9">
-        <v>25.57338808566937</v>
+        <v>296.25376804645</v>
       </c>
       <c r="S9">
-        <v>0.01264507372625477</v>
+        <v>0.01390302113139486</v>
       </c>
       <c r="T9">
-        <v>0.01264507372625477</v>
+        <v>0.01543155569795324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H10">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I10">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J10">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N10">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O10">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P10">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q10">
-        <v>37.98569243957008</v>
+        <v>40.229750817865</v>
       </c>
       <c r="R10">
-        <v>37.98569243957008</v>
+        <v>362.067757360785</v>
       </c>
       <c r="S10">
-        <v>0.01878248904025224</v>
+        <v>0.0169916342829249</v>
       </c>
       <c r="T10">
-        <v>0.01878248904025224</v>
+        <v>0.01885973907096412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H11">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I11">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J11">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N11">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O11">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P11">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q11">
-        <v>12.35489848398475</v>
+        <v>12.86105081676467</v>
       </c>
       <c r="R11">
-        <v>12.35489848398475</v>
+        <v>77.16630490058802</v>
       </c>
       <c r="S11">
-        <v>0.00610903028128395</v>
+        <v>0.005432056314789157</v>
       </c>
       <c r="T11">
-        <v>0.00610903028128395</v>
+        <v>0.004019513878020817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H12">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I12">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J12">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N12">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O12">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P12">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q12">
-        <v>4.679555808432813</v>
+        <v>0.7140434582383334</v>
       </c>
       <c r="R12">
-        <v>4.679555808432813</v>
+        <v>6.426391124145</v>
       </c>
       <c r="S12">
-        <v>0.00231386345858943</v>
+        <v>0.0003015868867652263</v>
       </c>
       <c r="T12">
-        <v>0.00231386345858943</v>
+        <v>0.0003347441391986853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H13">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I13">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J13">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N13">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P13">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q13">
-        <v>56.58756649373365</v>
+        <v>8.391095222043665</v>
       </c>
       <c r="R13">
-        <v>56.58756649373365</v>
+        <v>75.519856998393</v>
       </c>
       <c r="S13">
-        <v>0.0279804126033493</v>
+        <v>0.00354410401127439</v>
       </c>
       <c r="T13">
-        <v>0.0279804126033493</v>
+        <v>0.003933752091178271</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H14">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I14">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J14">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N14">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O14">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P14">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q14">
-        <v>102.8398424454923</v>
+        <v>18.18345714767222</v>
       </c>
       <c r="R14">
-        <v>102.8398424454923</v>
+        <v>163.65111432905</v>
       </c>
       <c r="S14">
-        <v>0.05085041471092339</v>
+        <v>0.007680053879808745</v>
       </c>
       <c r="T14">
-        <v>0.05085041471092339</v>
+        <v>0.008524419123691581</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H15">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I15">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J15">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N15">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O15">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P15">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q15">
-        <v>152.7542073260672</v>
+        <v>22.222986711485</v>
       </c>
       <c r="R15">
-        <v>152.7542073260672</v>
+        <v>200.006880403365</v>
       </c>
       <c r="S15">
-        <v>0.0755311813656844</v>
+        <v>0.009386209340082921</v>
       </c>
       <c r="T15">
-        <v>0.0755311813656844</v>
+        <v>0.01041815378508359</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3947903333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.184371</v>
+      </c>
+      <c r="I16">
+        <v>0.02391263179665035</v>
+      </c>
+      <c r="J16">
+        <v>0.02543145583511493</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.995546</v>
+      </c>
+      <c r="N16">
+        <v>35.991092</v>
+      </c>
+      <c r="O16">
+        <v>0.1254850450689161</v>
+      </c>
+      <c r="P16">
+        <v>0.08730867435819248</v>
+      </c>
+      <c r="Q16">
+        <v>7.104467603855333</v>
+      </c>
+      <c r="R16">
+        <v>42.62680562313199</v>
+      </c>
+      <c r="S16">
+        <v>0.003000677678719066</v>
+      </c>
+      <c r="T16">
+        <v>0.002220386695962803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.9579895</v>
+      </c>
+      <c r="H17">
+        <v>5.915979</v>
+      </c>
+      <c r="I17">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J17">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.808665</v>
+      </c>
+      <c r="N17">
+        <v>5.425995</v>
+      </c>
+      <c r="O17">
+        <v>0.01261203239065773</v>
+      </c>
+      <c r="P17">
+        <v>0.01316260230515319</v>
+      </c>
+      <c r="Q17">
+        <v>5.350012079017501</v>
+      </c>
+      <c r="R17">
+        <v>32.100072474105</v>
+      </c>
+      <c r="S17">
+        <v>0.002259657263786166</v>
+      </c>
+      <c r="T17">
+        <v>0.001672059935503739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.9579895</v>
+      </c>
+      <c r="H18">
+        <v>5.915979</v>
+      </c>
+      <c r="I18">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J18">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>21.254561</v>
+      </c>
+      <c r="N18">
+        <v>63.763683</v>
+      </c>
+      <c r="O18">
+        <v>0.1482105374854993</v>
+      </c>
+      <c r="P18">
+        <v>0.1546805702623864</v>
+      </c>
+      <c r="Q18">
+        <v>62.8707682651095</v>
+      </c>
+      <c r="R18">
+        <v>377.224609590657</v>
+      </c>
+      <c r="S18">
+        <v>0.02655440512877517</v>
+      </c>
+      <c r="T18">
+        <v>0.01964924399754531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.9579895</v>
+      </c>
+      <c r="H19">
+        <v>5.915979</v>
+      </c>
+      <c r="I19">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J19">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.05851666666666</v>
+      </c>
+      <c r="N19">
+        <v>138.17555</v>
+      </c>
+      <c r="O19">
+        <v>0.3211714187346186</v>
+      </c>
+      <c r="P19">
+        <v>0.3351919441403484</v>
+      </c>
+      <c r="Q19">
+        <v>136.240608685575</v>
+      </c>
+      <c r="R19">
+        <v>817.44365211345</v>
+      </c>
+      <c r="S19">
+        <v>0.05754324971459585</v>
+      </c>
+      <c r="T19">
+        <v>0.04257980356067297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.77925804429671</v>
-      </c>
-      <c r="H16">
-        <v>2.77925804429671</v>
-      </c>
-      <c r="I16">
-        <v>0.1812424923109451</v>
-      </c>
-      <c r="J16">
-        <v>0.1812424923109451</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>17.8765391065461</v>
-      </c>
-      <c r="N16">
-        <v>17.8765391065461</v>
-      </c>
-      <c r="O16">
-        <v>0.1355455878980706</v>
-      </c>
-      <c r="P16">
-        <v>0.1355455878980706</v>
-      </c>
-      <c r="Q16">
-        <v>49.68351511605297</v>
-      </c>
-      <c r="R16">
-        <v>49.68351511605297</v>
-      </c>
-      <c r="S16">
-        <v>0.02456662017239859</v>
-      </c>
-      <c r="T16">
-        <v>0.02456662017239859</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.9579895</v>
+      </c>
+      <c r="H20">
+        <v>5.915979</v>
+      </c>
+      <c r="I20">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J20">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>56.290605</v>
+      </c>
+      <c r="N20">
+        <v>168.871815</v>
+      </c>
+      <c r="O20">
+        <v>0.3925209663203081</v>
+      </c>
+      <c r="P20">
+        <v>0.4096562089339196</v>
+      </c>
+      <c r="Q20">
+        <v>166.5070185386475</v>
+      </c>
+      <c r="R20">
+        <v>999.042111231885</v>
+      </c>
+      <c r="S20">
+        <v>0.07032671858590056</v>
+      </c>
+      <c r="T20">
+        <v>0.05203908151358404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.9579895</v>
+      </c>
+      <c r="H21">
+        <v>5.915979</v>
+      </c>
+      <c r="I21">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J21">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.995546</v>
+      </c>
+      <c r="N21">
+        <v>35.991092</v>
+      </c>
+      <c r="O21">
+        <v>0.1254850450689161</v>
+      </c>
+      <c r="P21">
+        <v>0.08730867435819248</v>
+      </c>
+      <c r="Q21">
+        <v>53.230636114767</v>
+      </c>
+      <c r="R21">
+        <v>212.922544459068</v>
+      </c>
+      <c r="S21">
+        <v>0.02248275177254941</v>
+      </c>
+      <c r="T21">
+        <v>0.01109091751249847</v>
       </c>
     </row>
   </sheetData>
